--- a/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
+++ b/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="4215" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AssetInformation" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="MP" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A149:K166"/>
 </workbook>
 </file>
 
@@ -1129,34 +1128,34 @@
     <t>ProgramMade For TVTest</t>
   </si>
   <si>
-    <t>RLA219008</t>
-  </si>
-  <si>
-    <t>RLA219010</t>
-  </si>
-  <si>
-    <t>RLA219011</t>
-  </si>
-  <si>
-    <t>RLA219012</t>
-  </si>
-  <si>
-    <t>RLA219013</t>
-  </si>
-  <si>
-    <t>RLA219014</t>
-  </si>
-  <si>
-    <t>RLA219015</t>
-  </si>
-  <si>
-    <t>RLA219016</t>
-  </si>
-  <si>
-    <t>RLA219017</t>
-  </si>
-  <si>
-    <t>RLA219018</t>
+    <t>RLA219143</t>
+  </si>
+  <si>
+    <t>RLA219145</t>
+  </si>
+  <si>
+    <t>RLA219146</t>
+  </si>
+  <si>
+    <t>RLA219147</t>
+  </si>
+  <si>
+    <t>RLA219148</t>
+  </si>
+  <si>
+    <t>RLA219149</t>
+  </si>
+  <si>
+    <t>RLA219150</t>
+  </si>
+  <si>
+    <t>RLA219151</t>
+  </si>
+  <si>
+    <t>RLA219152</t>
+  </si>
+  <si>
+    <t>RLA219153</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2172,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="H171" sqref="H171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2637,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D33">
         <v>15331</v>
@@ -2875,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D50">
         <v>15405</v>
@@ -3113,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D67">
         <v>15466</v>
@@ -3351,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D84">
         <v>15483</v>
@@ -3589,7 +3588,7 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D101">
         <v>15517</v>
@@ -3827,7 +3826,7 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D118">
         <v>15500</v>
@@ -4065,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D135">
         <v>15540</v>
@@ -4303,7 +4302,7 @@
         <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D152">
         <v>15590</v>
@@ -4541,7 +4540,7 @@
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D169">
         <v>15557</v>
@@ -4647,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4755,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5043,8 +5042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
+++ b/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="4215" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="4215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AssetInformation" sheetId="3" r:id="rId1"/>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>TestRailID</t>
-  </si>
-  <si>
-    <t>chandan.heralagi@amcnetworks.com</t>
-  </si>
-  <si>
-    <t>8KaRbijapur</t>
   </si>
   <si>
     <t>AssetType</t>
@@ -1156,6 +1150,12 @@
   </si>
   <si>
     <t>RLA219153</t>
+  </si>
+  <si>
+    <t>Chaitanya.Sunkara@amcnetworks.com</t>
+  </si>
+  <si>
+    <t>Speed!!0230</t>
   </si>
 </sst>
 </file>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1606,10 +1606,11 @@
     <col min="3" max="3" width="19" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="2" collapsed="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="13" width="9.140625" style="2" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="9.140625" style="2" collapsed="1"/>
     <col min="14" max="14" width="11.28515625" style="2" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="15" style="2" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1623,108 +1624,108 @@
   <sheetData>
     <row r="1" spans="1:22" ht="45">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="45">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J2" s="2">
         <v>2030</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="P2" s="5">
         <v>43586</v>
@@ -1733,390 +1734,390 @@
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="45">
+    <row r="3" spans="1:22" ht="30">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2">
         <v>2030</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P3" s="5"/>
       <c r="R3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="30">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2">
         <v>2030</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P4" s="5"/>
       <c r="R4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="30">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2">
         <v>2030</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P5" s="5"/>
       <c r="R5" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="30">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2">
         <v>2030</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" s="5"/>
       <c r="R6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="30">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2">
         <v>2030</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P7" s="5"/>
       <c r="R7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="45">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="30">
       <c r="A8" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2">
         <v>2030</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P8" s="5"/>
       <c r="R8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="45">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="30">
       <c r="A9" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2">
         <v>2030</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P9" s="5"/>
       <c r="R9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="30">
       <c r="A10" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2">
         <v>2030</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P10" s="5"/>
       <c r="R10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="45">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="30">
       <c r="A11" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2">
         <v>2030</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P11" s="5"/>
       <c r="R11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2129,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2149,10 +2150,10 @@
     </row>
     <row r="2" spans="1:2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>358</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2171,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2196,7 +2197,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2210,13 +2211,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>13884</v>
@@ -2224,7 +2225,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2238,7 +2239,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2252,7 +2253,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2266,7 +2267,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2280,7 +2281,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2294,7 +2295,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2308,7 +2309,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2322,7 +2323,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2336,7 +2337,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2350,7 +2351,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2364,7 +2365,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2378,7 +2379,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2392,7 +2393,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2406,7 +2407,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2420,13 +2421,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D18">
         <v>13855</v>
@@ -2434,7 +2435,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2448,7 +2449,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2462,7 +2463,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2476,7 +2477,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2490,7 +2491,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2504,7 +2505,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2518,7 +2519,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -2532,7 +2533,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2546,7 +2547,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2560,7 +2561,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2574,7 +2575,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2588,7 +2589,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2602,7 +2603,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2616,7 +2617,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2630,13 +2631,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D33">
         <v>15331</v>
@@ -2644,7 +2645,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2658,13 +2659,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D35">
         <v>13886</v>
@@ -2672,7 +2673,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2686,7 +2687,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2700,7 +2701,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2714,7 +2715,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2728,7 +2729,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2742,7 +2743,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2756,7 +2757,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2770,7 +2771,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2784,7 +2785,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2798,7 +2799,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2812,7 +2813,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2826,7 +2827,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2840,7 +2841,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2854,7 +2855,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2868,13 +2869,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D50">
         <v>15405</v>
@@ -2882,7 +2883,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -2896,13 +2897,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52">
         <v>13887</v>
@@ -2910,7 +2911,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -2924,7 +2925,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -2938,7 +2939,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -2952,7 +2953,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -2966,7 +2967,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -2980,7 +2981,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -2994,7 +2995,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3008,7 +3009,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3022,7 +3023,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3036,7 +3037,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3050,7 +3051,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3064,7 +3065,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -3078,7 +3079,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -3092,7 +3093,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -3106,13 +3107,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D67">
         <v>15466</v>
@@ -3120,7 +3121,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -3134,13 +3135,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69">
         <v>13888</v>
@@ -3148,7 +3149,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3162,7 +3163,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3176,7 +3177,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3190,7 +3191,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3204,7 +3205,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3218,7 +3219,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3232,7 +3233,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3246,7 +3247,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3260,7 +3261,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3274,7 +3275,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -3288,7 +3289,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -3302,7 +3303,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -3316,7 +3317,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -3330,7 +3331,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -3344,13 +3345,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D84">
         <v>15483</v>
@@ -3358,7 +3359,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -3372,13 +3373,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D86">
         <v>13890</v>
@@ -3386,7 +3387,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -3400,7 +3401,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -3414,7 +3415,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -3428,7 +3429,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -3442,7 +3443,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -3456,7 +3457,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -3470,7 +3471,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -3484,7 +3485,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -3498,7 +3499,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -3512,7 +3513,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -3526,7 +3527,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -3540,7 +3541,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -3554,7 +3555,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -3568,7 +3569,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -3582,13 +3583,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B101">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D101">
         <v>15517</v>
@@ -3596,7 +3597,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -3610,13 +3611,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B103">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D103">
         <v>13889</v>
@@ -3624,7 +3625,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -3638,7 +3639,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -3652,7 +3653,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -3680,7 +3681,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -3694,7 +3695,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -3708,7 +3709,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -3722,7 +3723,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -3736,7 +3737,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -3750,7 +3751,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -3764,7 +3765,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -3778,7 +3779,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -3792,7 +3793,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -3806,7 +3807,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -3820,13 +3821,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B118">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D118">
         <v>15500</v>
@@ -3834,7 +3835,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -3848,13 +3849,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B120">
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D120">
         <v>13893</v>
@@ -3862,7 +3863,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -3876,7 +3877,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B122">
         <v>8</v>
@@ -3890,7 +3891,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B123">
         <v>8</v>
@@ -3904,7 +3905,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B124">
         <v>8</v>
@@ -3918,7 +3919,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B125">
         <v>8</v>
@@ -3932,7 +3933,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B126">
         <v>8</v>
@@ -3946,7 +3947,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B127">
         <v>8</v>
@@ -3960,7 +3961,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -3974,7 +3975,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3988,7 +3989,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B130">
         <v>8</v>
@@ -4002,7 +4003,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B131">
         <v>8</v>
@@ -4016,7 +4017,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B132">
         <v>8</v>
@@ -4030,7 +4031,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B133">
         <v>8</v>
@@ -4044,7 +4045,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B134">
         <v>8</v>
@@ -4058,13 +4059,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B135">
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D135">
         <v>15540</v>
@@ -4072,7 +4073,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B136">
         <v>8</v>
@@ -4086,13 +4087,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B137">
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D137">
         <v>13891</v>
@@ -4100,7 +4101,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B138">
         <v>9</v>
@@ -4114,7 +4115,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B139">
         <v>9</v>
@@ -4128,7 +4129,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B140">
         <v>9</v>
@@ -4142,7 +4143,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B141">
         <v>9</v>
@@ -4156,7 +4157,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B142">
         <v>9</v>
@@ -4170,7 +4171,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B143">
         <v>9</v>
@@ -4184,7 +4185,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B144">
         <v>9</v>
@@ -4198,7 +4199,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B145">
         <v>9</v>
@@ -4212,7 +4213,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B146">
         <v>9</v>
@@ -4226,7 +4227,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B147">
         <v>9</v>
@@ -4240,7 +4241,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B148">
         <v>9</v>
@@ -4254,7 +4255,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B149">
         <v>9</v>
@@ -4268,7 +4269,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B150">
         <v>9</v>
@@ -4282,7 +4283,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B151">
         <v>9</v>
@@ -4296,13 +4297,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B152">
         <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D152">
         <v>15590</v>
@@ -4310,7 +4311,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B153">
         <v>9</v>
@@ -4324,13 +4325,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B154">
         <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D154">
         <v>13892</v>
@@ -4338,7 +4339,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B155">
         <v>10</v>
@@ -4352,7 +4353,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B156">
         <v>10</v>
@@ -4366,7 +4367,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -4380,7 +4381,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B158">
         <v>10</v>
@@ -4394,7 +4395,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B159">
         <v>10</v>
@@ -4408,7 +4409,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B160">
         <v>10</v>
@@ -4422,7 +4423,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B161">
         <v>10</v>
@@ -4436,7 +4437,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B162">
         <v>10</v>
@@ -4450,7 +4451,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B163">
         <v>10</v>
@@ -4464,7 +4465,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B164">
         <v>10</v>
@@ -4478,7 +4479,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B165">
         <v>10</v>
@@ -4492,7 +4493,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B166">
         <v>10</v>
@@ -4506,7 +4507,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B167">
         <v>10</v>
@@ -4520,7 +4521,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B168">
         <v>10</v>
@@ -4534,13 +4535,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B169">
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D169">
         <v>15557</v>
@@ -4548,7 +4549,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B170">
         <v>10</v>
@@ -4562,7 +4563,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4596,10 +4597,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -4607,13 +4608,13 @@
     </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4634,7 +4635,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4662,82 +4663,82 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4768,269 +4769,269 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
         <v>96</v>
-      </c>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5058,42 +5059,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30">
       <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="345">
       <c r="A2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5122,148 +5123,148 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
+++ b/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
@@ -1155,7 +1155,7 @@
     <t>Chaitanya.Sunkara@amcnetworks.com</t>
   </si>
   <si>
-    <t>Speed!!0230</t>
+    <t>Dream!!0230</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2131,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
+++ b/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="4215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="4215" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AssetInformation" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="359">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -198,55 +198,25 @@
     <t>GetValue</t>
   </si>
   <si>
-    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/asit/oauthGeneric/oauth2/token</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Content-Type,Accept</t>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded,application/json</t>
-  </si>
-  <si>
-    <t>grant_type=client_credentials&amp;client_id=cebff59a-4e80-4a47-9c2a-6e25ec3c5397&amp;client_secret=xY2sJ4xW1bW4hW1uN5bU2uG6hM2wI4kX7dM1qH6nK2wT2aT1oO&amp;scope=amcn_notifications</t>
-  </si>
-  <si>
     <t>access_token</t>
   </si>
   <si>
-    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/asit/1.2.0/adam/post</t>
-  </si>
-  <si>
     <t>Content-Type,Authorization,Accept,endpoint,resource,tls-profile,x-ibm-client-id</t>
   </si>
   <si>
-    <t>application/json,Bearer,application/json,https://cap-sg-prd-4.integration.ibmcloud.com:17433,/dev/program/login,asit-wo-101059121-50697,cebff59a-4e80-4a47-9c2a-6e25ec3c5397</t>
-  </si>
-  <si>
     <t>token</t>
   </si>
   <si>
-    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/asit/1.2.0/adam/get</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
-    <t>Authorization,Content-Type,auth2,endpoint,resource,tls-profile,x-ibm-client-id</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"username":"restRightsLogic5", "password": "abcd1234"} </t>
-  </si>
-  <si>
-    <t>Bearer,application/xml,Bearer,https://cap-sg-prd-4.integration.ibmcloud.com:17433,/dev/program/getEpisodeSeasonSeries/externalReference/%s,asit-wo-101059121-50697,cebff59a-4e80-4a47-9c2a-6e25ec3c5397</t>
   </si>
   <si>
     <t>ObjectName</t>
@@ -1156,6 +1126,33 @@
   </si>
   <si>
     <t>Dream!!0230</t>
+  </si>
+  <si>
+    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/adev/oauthGeneric/oauth2/token</t>
+  </si>
+  <si>
+    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/adev/1.2.0/adam/post</t>
+  </si>
+  <si>
+    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/adev/1.2.0/adam/get</t>
+  </si>
+  <si>
+    <t>Content-Type,Host,Accept</t>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded,api.us.apiconnect.ibmcloud.com,application/json</t>
+  </si>
+  <si>
+    <t>application/json,Bearer,application/json,https://cap-sg-prd-4.integration.ibmcloud.com:18213,/dev/program/login,adev-wo-101059111-50697,b558c50f-a17b-424d-810c-8af9864f54ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"username":"WOP-SIT", "password": "abcd1234"} </t>
+  </si>
+  <si>
+    <t>Authorization,Content-Type,Accept,auth2,endpoint,resource,tls-profile,x-ibm-client-id</t>
+  </si>
+  <si>
+    <t>Bearer,application/xml,application/json,Bearer,https://cap-sg-prd-4.integration.ibmcloud.com:18213,/dev/program/getEpisodeSeasonSeries/externalReference/%s,adev-wo-101059111-50697,b558c50f-a17b-424d-810c-8af9864f54ec</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1271,9 +1268,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1672,13 +1666,13 @@
         <v>33</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="30">
@@ -1686,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -1704,7 +1698,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
@@ -1734,26 +1728,26 @@
         <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="T2" s="3"/>
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="30">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -1765,7 +1759,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>21</v>
@@ -1778,24 +1772,24 @@
       </c>
       <c r="P3" s="5"/>
       <c r="R3" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -1807,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>21</v>
@@ -1820,24 +1814,24 @@
       </c>
       <c r="P4" s="5"/>
       <c r="R4" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30">
       <c r="A5" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -1849,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>21</v>
@@ -1862,24 +1856,24 @@
       </c>
       <c r="P5" s="5"/>
       <c r="R5" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30">
       <c r="A6" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1891,7 +1885,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>21</v>
@@ -1904,24 +1898,24 @@
       </c>
       <c r="P6" s="5"/>
       <c r="R6" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30">
       <c r="A7" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -1933,7 +1927,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
@@ -1946,24 +1940,24 @@
       </c>
       <c r="P7" s="5"/>
       <c r="R7" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30">
       <c r="A8" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -1975,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>21</v>
@@ -1988,24 +1982,24 @@
       </c>
       <c r="P8" s="5"/>
       <c r="R8" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -2017,7 +2011,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>21</v>
@@ -2030,24 +2024,24 @@
       </c>
       <c r="P9" s="5"/>
       <c r="R9" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30">
       <c r="A10" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -2059,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>21</v>
@@ -2072,24 +2066,24 @@
       </c>
       <c r="P10" s="5"/>
       <c r="R10" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30">
       <c r="A11" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -2101,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
@@ -2114,10 +2108,10 @@
       </c>
       <c r="P11" s="5"/>
       <c r="R11" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2150,10 +2144,10 @@
     </row>
     <row r="2" spans="1:2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2197,7 +2191,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2211,13 +2205,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>13884</v>
@@ -2225,7 +2219,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2239,7 +2233,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2253,7 +2247,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2267,7 +2261,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2281,7 +2275,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2295,7 +2289,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2309,7 +2303,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2323,7 +2317,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2337,7 +2331,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2351,7 +2345,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2365,7 +2359,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2379,7 +2373,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2393,7 +2387,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2421,13 +2415,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D18">
         <v>13855</v>
@@ -2435,7 +2429,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2449,7 +2443,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2463,7 +2457,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2477,7 +2471,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2491,7 +2485,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2505,7 +2499,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2519,7 +2513,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -2533,7 +2527,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2547,7 +2541,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2561,7 +2555,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2575,7 +2569,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2589,7 +2583,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2603,7 +2597,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2617,7 +2611,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2631,13 +2625,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D33">
         <v>15331</v>
@@ -2645,7 +2639,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2659,13 +2653,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D35">
         <v>13886</v>
@@ -2673,7 +2667,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2687,7 +2681,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2701,7 +2695,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2715,7 +2709,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2729,7 +2723,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2743,7 +2737,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2757,7 +2751,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2771,7 +2765,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2785,7 +2779,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2799,7 +2793,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2813,7 +2807,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2827,7 +2821,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2841,7 +2835,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2855,7 +2849,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2869,13 +2863,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D50">
         <v>15405</v>
@@ -2883,7 +2877,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -2897,13 +2891,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D52">
         <v>13887</v>
@@ -2911,7 +2905,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -2925,7 +2919,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -2939,7 +2933,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -2953,7 +2947,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -2967,7 +2961,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -2981,7 +2975,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -2995,7 +2989,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3009,7 +3003,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -3023,7 +3017,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3037,7 +3031,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3051,7 +3045,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3065,7 +3059,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -3079,7 +3073,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -3093,7 +3087,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -3107,13 +3101,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D67">
         <v>15466</v>
@@ -3121,7 +3115,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -3135,13 +3129,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D69">
         <v>13888</v>
@@ -3149,7 +3143,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3163,7 +3157,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3177,7 +3171,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3191,7 +3185,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3205,7 +3199,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3219,7 +3213,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3233,7 +3227,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3247,7 +3241,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3261,7 +3255,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3275,7 +3269,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -3289,7 +3283,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -3303,7 +3297,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -3317,7 +3311,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -3331,7 +3325,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -3345,13 +3339,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D84">
         <v>15483</v>
@@ -3359,7 +3353,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -3373,13 +3367,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D86">
         <v>13890</v>
@@ -3387,7 +3381,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -3401,7 +3395,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -3415,7 +3409,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -3429,7 +3423,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -3443,7 +3437,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -3457,7 +3451,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -3471,7 +3465,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -3485,7 +3479,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -3499,7 +3493,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -3513,7 +3507,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -3527,7 +3521,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -3541,7 +3535,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -3555,7 +3549,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -3569,7 +3563,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -3583,13 +3577,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B101">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D101">
         <v>15517</v>
@@ -3597,7 +3591,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -3611,13 +3605,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B103">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D103">
         <v>13889</v>
@@ -3625,7 +3619,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -3639,7 +3633,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B105">
         <v>7</v>
@@ -3653,7 +3647,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B106">
         <v>7</v>
@@ -3667,7 +3661,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -3681,7 +3675,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B108">
         <v>7</v>
@@ -3695,7 +3689,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B109">
         <v>7</v>
@@ -3709,7 +3703,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -3723,7 +3717,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -3737,7 +3731,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -3751,7 +3745,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -3765,7 +3759,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -3779,7 +3773,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -3793,7 +3787,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -3807,7 +3801,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -3821,13 +3815,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B118">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D118">
         <v>15500</v>
@@ -3835,7 +3829,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -3849,13 +3843,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B120">
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D120">
         <v>13893</v>
@@ -3863,7 +3857,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -3877,7 +3871,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B122">
         <v>8</v>
@@ -3891,7 +3885,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B123">
         <v>8</v>
@@ -3905,7 +3899,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B124">
         <v>8</v>
@@ -3919,7 +3913,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B125">
         <v>8</v>
@@ -3933,7 +3927,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B126">
         <v>8</v>
@@ -3947,7 +3941,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B127">
         <v>8</v>
@@ -3961,7 +3955,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -3975,7 +3969,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3989,7 +3983,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B130">
         <v>8</v>
@@ -4003,7 +3997,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B131">
         <v>8</v>
@@ -4017,7 +4011,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B132">
         <v>8</v>
@@ -4031,7 +4025,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B133">
         <v>8</v>
@@ -4045,7 +4039,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B134">
         <v>8</v>
@@ -4059,13 +4053,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B135">
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D135">
         <v>15540</v>
@@ -4073,7 +4067,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B136">
         <v>8</v>
@@ -4087,13 +4081,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B137">
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D137">
         <v>13891</v>
@@ -4101,7 +4095,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B138">
         <v>9</v>
@@ -4115,7 +4109,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B139">
         <v>9</v>
@@ -4129,7 +4123,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B140">
         <v>9</v>
@@ -4143,7 +4137,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B141">
         <v>9</v>
@@ -4157,7 +4151,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B142">
         <v>9</v>
@@ -4171,7 +4165,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B143">
         <v>9</v>
@@ -4185,7 +4179,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B144">
         <v>9</v>
@@ -4199,7 +4193,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B145">
         <v>9</v>
@@ -4213,7 +4207,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B146">
         <v>9</v>
@@ -4227,7 +4221,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B147">
         <v>9</v>
@@ -4241,7 +4235,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B148">
         <v>9</v>
@@ -4255,7 +4249,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B149">
         <v>9</v>
@@ -4269,7 +4263,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B150">
         <v>9</v>
@@ -4283,7 +4277,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B151">
         <v>9</v>
@@ -4297,13 +4291,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B152">
         <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D152">
         <v>15590</v>
@@ -4311,7 +4305,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B153">
         <v>9</v>
@@ -4325,13 +4319,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B154">
         <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D154">
         <v>13892</v>
@@ -4339,7 +4333,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B155">
         <v>10</v>
@@ -4353,7 +4347,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B156">
         <v>10</v>
@@ -4367,7 +4361,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B157">
         <v>10</v>
@@ -4381,7 +4375,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B158">
         <v>10</v>
@@ -4395,7 +4389,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B159">
         <v>10</v>
@@ -4409,7 +4403,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B160">
         <v>10</v>
@@ -4423,7 +4417,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B161">
         <v>10</v>
@@ -4437,7 +4431,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B162">
         <v>10</v>
@@ -4451,7 +4445,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B163">
         <v>10</v>
@@ -4465,7 +4459,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B164">
         <v>10</v>
@@ -4479,7 +4473,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B165">
         <v>10</v>
@@ -4493,7 +4487,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B166">
         <v>10</v>
@@ -4507,7 +4501,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B167">
         <v>10</v>
@@ -4521,7 +4515,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B168">
         <v>10</v>
@@ -4535,13 +4529,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B169">
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D169">
         <v>15557</v>
@@ -4549,7 +4543,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B170">
         <v>10</v>
@@ -4563,7 +4557,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4647,15 +4641,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="83" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="85" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="39" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
@@ -4683,62 +4677,62 @@
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="9" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>356</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="9" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>59</v>
+        <v>357</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4769,134 +4763,134 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -4904,134 +4898,134 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5049,52 +5043,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" style="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="65.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" width="21.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="65.7109375" style="14" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="345">
-      <c r="A2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>60</v>
+      <c r="A2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5122,69 +5116,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>66</v>
+      <c r="A1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -5192,79 +5186,79 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
+++ b/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="4215" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AssetInformation" sheetId="3" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="ExecutionModel" sheetId="2" r:id="rId3"/>
     <sheet name="DBConnectionInfo" sheetId="4" r:id="rId4"/>
     <sheet name="SQLQuery" sheetId="5" r:id="rId5"/>
-    <sheet name="WOPAPI" sheetId="7" r:id="rId6"/>
-    <sheet name="WOP" sheetId="8" r:id="rId7"/>
+    <sheet name="WOP" sheetId="8" r:id="rId6"/>
+    <sheet name="WOPAPI" sheetId="11" r:id="rId7"/>
     <sheet name="MPAPI" sheetId="9" r:id="rId8"/>
     <sheet name="MP" sheetId="10" r:id="rId9"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="360">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1128,38 +1128,41 @@
     <t>Dream!!0230</t>
   </si>
   <si>
-    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/adev/oauthGeneric/oauth2/token</t>
-  </si>
-  <si>
-    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/adev/1.2.0/adam/post</t>
-  </si>
-  <si>
-    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/adev/1.2.0/adam/get</t>
-  </si>
-  <si>
-    <t>Content-Type,Host,Accept</t>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded,api.us.apiconnect.ibmcloud.com,application/json</t>
-  </si>
-  <si>
-    <t>application/json,Bearer,application/json,https://cap-sg-prd-4.integration.ibmcloud.com:18213,/dev/program/login,adev-wo-101059111-50697,b558c50f-a17b-424d-810c-8af9864f54ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"username":"WOP-SIT", "password": "abcd1234"} </t>
-  </si>
-  <si>
-    <t>Authorization,Content-Type,Accept,auth2,endpoint,resource,tls-profile,x-ibm-client-id</t>
-  </si>
-  <si>
-    <t>Bearer,application/xml,application/json,Bearer,https://cap-sg-prd-4.integration.ibmcloud.com:18213,/dev/program/getEpisodeSeasonSeries/externalReference/%s,adev-wo-101059111-50697,b558c50f-a17b-424d-810c-8af9864f54ec</t>
+    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/asit/oauthGeneric/oauth2/token</t>
+  </si>
+  <si>
+    <t>Content-Type,Accept</t>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded,application/json</t>
+  </si>
+  <si>
+    <t>grant_type=client_credentials&amp;client_id=cebff59a-4e80-4a47-9c2a-6e25ec3c5397&amp;client_secret=xY2sJ4xW1bW4hW1uN5bU2uG6hM2wI4kX7dM1qH6nK2wT2aT1oO&amp;scope=amcn_notifications</t>
+  </si>
+  <si>
+    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/asit/1.2.0/adam/post</t>
+  </si>
+  <si>
+    <t>application/json,Bearer,application/json,https://cap-sg-prd-4.integration.ibmcloud.com:17433,/dev/program/login,asit-wo-101059121-50697,cebff59a-4e80-4a47-9c2a-6e25ec3c5397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"username":"restRightsLogic5", "password": "abcd1234"} </t>
+  </si>
+  <si>
+    <t>https://api.us.apiconnect.ibmcloud.com/amc-networks-inc-dev/asit/1.2.0/adam/get</t>
+  </si>
+  <si>
+    <t>Authorization,Content-Type,auth2,endpoint,resource,tls-profile,x-ibm-client-id</t>
+  </si>
+  <si>
+    <t>Bearer,application/xml,Bearer,https://cap-sg-prd-4.integration.ibmcloud.com:17433,/dev/program/getEpisodeSeasonSeries/externalReference/%s,asit-wo-101059121-50697,cebff59a-4e80-4a47-9c2a-6e25ec3c5397</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,23 +1189,6 @@
       <color rgb="FF669900"/>
       <name val="Consolas"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF505050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF7D2727"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1247,7 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1265,13 +1251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1282,6 +1261,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1589,11 +1571,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.140625" style="2" customWidth="1" collapsed="1"/>
@@ -1616,7 +1598,7 @@
     <col min="23" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45">
+    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1657,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="30">
+    <row r="2" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1736,7 +1718,7 @@
       <c r="T2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="30">
+    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -1778,7 +1760,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="30">
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>170</v>
       </c>
@@ -1820,7 +1802,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>171</v>
       </c>
@@ -1862,7 +1844,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>172</v>
       </c>
@@ -1904,7 +1886,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="30">
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>173</v>
       </c>
@@ -1946,7 +1928,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="30">
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>313</v>
       </c>
@@ -1988,7 +1970,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="30">
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>174</v>
       </c>
@@ -2030,7 +2012,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="30">
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>312</v>
       </c>
@@ -2072,7 +2054,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="30">
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>311</v>
       </c>
@@ -2128,13 +2110,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2142,7 +2124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>348</v>
       </c>
@@ -2150,7 +2132,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -2170,12 +2152,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2203,7 +2185,7 @@
         <v>15315</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -2217,7 +2199,7 @@
         <v>13884</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -2231,7 +2213,7 @@
         <v>15267</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2245,7 +2227,7 @@
         <v>15270</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -2259,7 +2241,7 @@
         <v>15269</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2273,7 +2255,7 @@
         <v>15271</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2287,7 +2269,7 @@
         <v>15274</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2301,7 +2283,7 @@
         <v>15280</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -2315,7 +2297,7 @@
         <v>15272</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2329,7 +2311,7 @@
         <v>15278</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -2343,7 +2325,7 @@
         <v>15276</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -2357,7 +2339,7 @@
         <v>15277</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -2371,7 +2353,7 @@
         <v>15287</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -2385,7 +2367,7 @@
         <v>15288</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -2399,7 +2381,7 @@
         <v>15268</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2413,7 +2395,7 @@
         <v>15273</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -2427,7 +2409,7 @@
         <v>13855</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2441,7 +2423,7 @@
         <v>15266</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -2455,7 +2437,7 @@
         <v>15316</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -2469,7 +2451,7 @@
         <v>15319</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -2483,7 +2465,7 @@
         <v>15318</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -2497,7 +2479,7 @@
         <v>15320</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -2511,7 +2493,7 @@
         <v>15321</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2525,7 +2507,7 @@
         <v>15328</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -2539,7 +2521,7 @@
         <v>15324</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2553,7 +2535,7 @@
         <v>15322</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -2567,7 +2549,7 @@
         <v>15323</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -2581,7 +2563,7 @@
         <v>15329</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -2595,7 +2577,7 @@
         <v>15330</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -2609,7 +2591,7 @@
         <v>15317</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2623,7 +2605,7 @@
         <v>15332</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -2637,7 +2619,7 @@
         <v>15331</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -2651,7 +2633,7 @@
         <v>15333</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -2665,7 +2647,7 @@
         <v>13886</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -2679,7 +2661,7 @@
         <v>15391</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>177</v>
       </c>
@@ -2693,7 +2675,7 @@
         <v>15392</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -2707,7 +2689,7 @@
         <v>15395</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>179</v>
       </c>
@@ -2721,7 +2703,7 @@
         <v>15394</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>180</v>
       </c>
@@ -2735,7 +2717,7 @@
         <v>15396</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>181</v>
       </c>
@@ -2749,7 +2731,7 @@
         <v>15397</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -2763,7 +2745,7 @@
         <v>15402</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -2777,7 +2759,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -2791,7 +2773,7 @@
         <v>15398</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>185</v>
       </c>
@@ -2805,7 +2787,7 @@
         <v>15399</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -2819,7 +2801,7 @@
         <v>15403</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -2833,7 +2815,7 @@
         <v>15404</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -2847,7 +2829,7 @@
         <v>15393</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -2861,7 +2843,7 @@
         <v>15406</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -2875,7 +2857,7 @@
         <v>15405</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -2889,7 +2871,7 @@
         <v>15407</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -2903,7 +2885,7 @@
         <v>13887</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>193</v>
       </c>
@@ -2917,7 +2899,7 @@
         <v>15452</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>194</v>
       </c>
@@ -2931,7 +2913,7 @@
         <v>15453</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>195</v>
       </c>
@@ -2945,7 +2927,7 @@
         <v>15456</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>196</v>
       </c>
@@ -2959,7 +2941,7 @@
         <v>15455</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -2973,7 +2955,7 @@
         <v>15457</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>198</v>
       </c>
@@ -2987,7 +2969,7 @@
         <v>15458</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>199</v>
       </c>
@@ -3001,7 +2983,7 @@
         <v>15463</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>200</v>
       </c>
@@ -3015,7 +2997,7 @@
         <v>15461</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>201</v>
       </c>
@@ -3029,7 +3011,7 @@
         <v>15459</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -3043,7 +3025,7 @@
         <v>15460</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -3057,7 +3039,7 @@
         <v>15464</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>204</v>
       </c>
@@ -3071,7 +3053,7 @@
         <v>15465</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -3085,7 +3067,7 @@
         <v>15454</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>206</v>
       </c>
@@ -3099,7 +3081,7 @@
         <v>15467</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>207</v>
       </c>
@@ -3113,7 +3095,7 @@
         <v>15466</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>208</v>
       </c>
@@ -3127,7 +3109,7 @@
         <v>15468</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -3141,7 +3123,7 @@
         <v>13888</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -3155,7 +3137,7 @@
         <v>15469</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -3169,7 +3151,7 @@
         <v>15470</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -3183,7 +3165,7 @@
         <v>15473</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -3197,7 +3179,7 @@
         <v>15472</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -3211,7 +3193,7 @@
         <v>15474</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>215</v>
       </c>
@@ -3225,7 +3207,7 @@
         <v>15475</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>216</v>
       </c>
@@ -3239,7 +3221,7 @@
         <v>15480</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>217</v>
       </c>
@@ -3253,7 +3235,7 @@
         <v>15478</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>218</v>
       </c>
@@ -3267,7 +3249,7 @@
         <v>15476</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>219</v>
       </c>
@@ -3281,7 +3263,7 @@
         <v>15477</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>220</v>
       </c>
@@ -3295,7 +3277,7 @@
         <v>15481</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -3309,7 +3291,7 @@
         <v>15482</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>222</v>
       </c>
@@ -3323,7 +3305,7 @@
         <v>15471</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>223</v>
       </c>
@@ -3337,7 +3319,7 @@
         <v>15484</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -3351,7 +3333,7 @@
         <v>15483</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>225</v>
       </c>
@@ -3365,7 +3347,7 @@
         <v>15485</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>226</v>
       </c>
@@ -3379,7 +3361,7 @@
         <v>13890</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>227</v>
       </c>
@@ -3393,7 +3375,7 @@
         <v>15503</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>228</v>
       </c>
@@ -3407,7 +3389,7 @@
         <v>15504</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>229</v>
       </c>
@@ -3421,7 +3403,7 @@
         <v>15507</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>230</v>
       </c>
@@ -3435,7 +3417,7 @@
         <v>15506</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>231</v>
       </c>
@@ -3449,7 +3431,7 @@
         <v>15508</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>232</v>
       </c>
@@ -3463,7 +3445,7 @@
         <v>15509</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>233</v>
       </c>
@@ -3477,7 +3459,7 @@
         <v>15514</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>234</v>
       </c>
@@ -3491,7 +3473,7 @@
         <v>15512</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>235</v>
       </c>
@@ -3505,7 +3487,7 @@
         <v>15510</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>236</v>
       </c>
@@ -3519,7 +3501,7 @@
         <v>15511</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>259</v>
       </c>
@@ -3533,7 +3515,7 @@
         <v>15515</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>237</v>
       </c>
@@ -3547,7 +3529,7 @@
         <v>15516</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>238</v>
       </c>
@@ -3561,7 +3543,7 @@
         <v>15505</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -3575,7 +3557,7 @@
         <v>15518</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>240</v>
       </c>
@@ -3589,7 +3571,7 @@
         <v>15517</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>241</v>
       </c>
@@ -3603,7 +3585,7 @@
         <v>15519</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>242</v>
       </c>
@@ -3617,7 +3599,7 @@
         <v>13889</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>243</v>
       </c>
@@ -3631,7 +3613,7 @@
         <v>15486</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>244</v>
       </c>
@@ -3645,7 +3627,7 @@
         <v>15487</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>245</v>
       </c>
@@ -3659,7 +3641,7 @@
         <v>15490</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>246</v>
       </c>
@@ -3673,7 +3655,7 @@
         <v>15489</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>247</v>
       </c>
@@ -3687,7 +3669,7 @@
         <v>15491</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>248</v>
       </c>
@@ -3701,7 +3683,7 @@
         <v>15492</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>249</v>
       </c>
@@ -3715,7 +3697,7 @@
         <v>15497</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>250</v>
       </c>
@@ -3729,7 +3711,7 @@
         <v>15495</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>251</v>
       </c>
@@ -3743,7 +3725,7 @@
         <v>15493</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>252</v>
       </c>
@@ -3757,7 +3739,7 @@
         <v>15494</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>253</v>
       </c>
@@ -3771,7 +3753,7 @@
         <v>15498</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>254</v>
       </c>
@@ -3785,7 +3767,7 @@
         <v>15499</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>255</v>
       </c>
@@ -3799,7 +3781,7 @@
         <v>15488</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>256</v>
       </c>
@@ -3813,7 +3795,7 @@
         <v>15501</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>257</v>
       </c>
@@ -3827,7 +3809,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>258</v>
       </c>
@@ -3841,7 +3823,7 @@
         <v>15502</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>260</v>
       </c>
@@ -3855,7 +3837,7 @@
         <v>13893</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>261</v>
       </c>
@@ -3869,7 +3851,7 @@
         <v>15526</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -3883,7 +3865,7 @@
         <v>15527</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>263</v>
       </c>
@@ -3897,7 +3879,7 @@
         <v>15530</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -3911,7 +3893,7 @@
         <v>15529</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>265</v>
       </c>
@@ -3925,7 +3907,7 @@
         <v>15531</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>266</v>
       </c>
@@ -3939,7 +3921,7 @@
         <v>15532</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>267</v>
       </c>
@@ -3953,7 +3935,7 @@
         <v>15537</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>268</v>
       </c>
@@ -3967,7 +3949,7 @@
         <v>15535</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>269</v>
       </c>
@@ -3981,7 +3963,7 @@
         <v>15533</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>270</v>
       </c>
@@ -3995,7 +3977,7 @@
         <v>15534</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>271</v>
       </c>
@@ -4009,7 +3991,7 @@
         <v>15538</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>272</v>
       </c>
@@ -4023,7 +4005,7 @@
         <v>15539</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>273</v>
       </c>
@@ -4037,7 +4019,7 @@
         <v>15528</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>274</v>
       </c>
@@ -4051,7 +4033,7 @@
         <v>15541</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>275</v>
       </c>
@@ -4065,7 +4047,7 @@
         <v>15540</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>276</v>
       </c>
@@ -4079,7 +4061,7 @@
         <v>15542</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>294</v>
       </c>
@@ -4093,7 +4075,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>295</v>
       </c>
@@ -4107,7 +4089,7 @@
         <v>15576</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>296</v>
       </c>
@@ -4121,7 +4103,7 @@
         <v>15577</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>297</v>
       </c>
@@ -4135,7 +4117,7 @@
         <v>15580</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>298</v>
       </c>
@@ -4149,7 +4131,7 @@
         <v>15579</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>299</v>
       </c>
@@ -4163,7 +4145,7 @@
         <v>15581</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>300</v>
       </c>
@@ -4177,7 +4159,7 @@
         <v>15582</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>301</v>
       </c>
@@ -4191,7 +4173,7 @@
         <v>15587</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>302</v>
       </c>
@@ -4205,7 +4187,7 @@
         <v>15585</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>303</v>
       </c>
@@ -4219,7 +4201,7 @@
         <v>15583</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>304</v>
       </c>
@@ -4233,7 +4215,7 @@
         <v>15584</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>305</v>
       </c>
@@ -4247,7 +4229,7 @@
         <v>15588</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>306</v>
       </c>
@@ -4261,7 +4243,7 @@
         <v>15589</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>307</v>
       </c>
@@ -4275,7 +4257,7 @@
         <v>15578</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -4289,7 +4271,7 @@
         <v>15591</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>309</v>
       </c>
@@ -4303,7 +4285,7 @@
         <v>15590</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>310</v>
       </c>
@@ -4317,7 +4299,7 @@
         <v>15592</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>277</v>
       </c>
@@ -4331,7 +4313,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>278</v>
       </c>
@@ -4345,7 +4327,7 @@
         <v>15543</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>279</v>
       </c>
@@ -4359,7 +4341,7 @@
         <v>15544</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>280</v>
       </c>
@@ -4373,7 +4355,7 @@
         <v>15547</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>281</v>
       </c>
@@ -4387,7 +4369,7 @@
         <v>15546</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>282</v>
       </c>
@@ -4401,7 +4383,7 @@
         <v>15548</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>283</v>
       </c>
@@ -4415,7 +4397,7 @@
         <v>15549</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>284</v>
       </c>
@@ -4429,7 +4411,7 @@
         <v>15554</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>285</v>
       </c>
@@ -4443,7 +4425,7 @@
         <v>15552</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>286</v>
       </c>
@@ -4457,7 +4439,7 @@
         <v>15550</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>287</v>
       </c>
@@ -4471,7 +4453,7 @@
         <v>15551</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>288</v>
       </c>
@@ -4485,7 +4467,7 @@
         <v>15555</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>289</v>
       </c>
@@ -4499,7 +4481,7 @@
         <v>15556</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>290</v>
       </c>
@@ -4513,7 +4495,7 @@
         <v>15545</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>291</v>
       </c>
@@ -4527,7 +4509,7 @@
         <v>15558</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>292</v>
       </c>
@@ -4541,7 +4523,7 @@
         <v>15557</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>293</v>
       </c>
@@ -4555,7 +4537,7 @@
         <v>15559</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>314</v>
       </c>
@@ -4582,14 +4564,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -4600,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -4622,12 +4604,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
+    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>39</v>
       </c>
@@ -4639,121 +4621,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="83" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="85" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="48" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
@@ -4761,7 +4635,7 @@
     <col min="4" max="4" width="37" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -4775,7 +4649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4786,7 +4660,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -4797,7 +4671,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4808,7 +4682,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -4819,7 +4693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4830,7 +4704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -4841,7 +4715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -4852,7 +4726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -4863,7 +4737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -4874,7 +4748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -4885,7 +4759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -4896,7 +4770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -4907,7 +4781,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4918,7 +4792,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -4929,7 +4803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -4940,7 +4814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -4951,7 +4825,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -4962,7 +4836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -4973,7 +4847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -4984,7 +4858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -4995,7 +4869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -5006,7 +4880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -5017,7 +4891,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -5026,6 +4900,110 @@
       </c>
       <c r="D24" t="s">
         <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="92.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="82.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="63.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5041,53 +5019,53 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="65.7109375" style="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="14" collapsed="1"/>
+    <col min="1" max="1" width="21.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="65.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="345">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5108,28 +5086,28 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="103" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -5140,7 +5118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -5151,7 +5129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -5162,7 +5140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -5173,7 +5151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -5184,7 +5162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -5195,7 +5173,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -5206,7 +5184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -5217,7 +5195,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -5228,7 +5206,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -5239,7 +5217,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -5250,7 +5228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>167</v>
       </c>

--- a/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
+++ b/AMCNetworks/src/main/java/com/amc/datasheets/AssestsIntegration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AssetInformation" sheetId="3" r:id="rId1"/>
@@ -2148,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D15">
         <v>15288</v>
@@ -2571,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D30">
         <v>15330</v>
@@ -2809,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D47">
         <v>15404</v>
@@ -3047,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D64">
         <v>15465</v>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D81">
         <v>15482</v>
@@ -3523,7 +3523,7 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D98">
         <v>15516</v>
@@ -3761,7 +3761,7 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D115">
         <v>15499</v>
@@ -3999,7 +3999,7 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D132">
         <v>15539</v>
@@ -4237,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D149">
         <v>15589</v>
@@ -4475,7 +4475,7 @@
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="D166">
         <v>15556</v>
@@ -4911,7 +4911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
